--- a/textdata/登录管理.xlsx
+++ b/textdata/登录管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>5300001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -108,11 +107,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,21 +401,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -417,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -434,13 +440,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -449,13 +455,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/textdata/登录管理.xlsx
+++ b/textdata/登录管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536"/>
+    <workbookView xWindow="2340" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,14 +40,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5300001</t>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>99999</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -65,11 +84,6 @@
     </font>
     <font>
       <sz val="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -100,7 +114,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -111,12 +125,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -158,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,19 +420,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -423,12 +440,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -461,7 +486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/textdata/登录管理.xlsx
+++ b/textdata/登录管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="6060" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000</t>
+    <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/textdata/登录管理.xlsx
+++ b/textdata/登录管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="6060" yWindow="120" windowWidth="8508" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <r>
       <t>0</t>
@@ -54,11 +46,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>53000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5329001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -175,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,29 +426,29 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,7 +471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -486,7 +486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/textdata/登录管理.xlsx
+++ b/textdata/登录管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="120" windowWidth="8508" windowHeight="4536"/>
+    <workbookView xWindow="6990" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -175,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,16 +423,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,7 +471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -486,7 +486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
